--- a/Evaluation/RQ2.xlsx
+++ b/Evaluation/RQ2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anity\git\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD2948F5-114A-4216-8B28-CC0B626B1B23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBB17F0-1DC9-486C-B66E-8D891871907C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{6FF1A8E1-9FB1-4E0A-B3B2-55FFB8D213DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Website</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>FP</t>
-  </si>
-  <si>
-    <t>FN</t>
   </si>
   <si>
     <t>Precision</t>
@@ -482,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A8AA42-3849-40EA-9BF2-CD6F749367E5}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,16 +512,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>230</v>
@@ -536,22 +530,19 @@
         <v>124</v>
       </c>
       <c r="F2" s="3">
-        <v>30</v>
+        <v>0.46</v>
       </c>
       <c r="G2" s="3">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="H2" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="I2" s="3">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>206</v>
@@ -563,24 +554,21 @@
         <v>100</v>
       </c>
       <c r="F3" s="3">
-        <v>30</v>
+        <v>0.51</v>
       </c>
       <c r="G3" s="3">
-        <v>0.51</v>
+        <v>0.78</v>
       </c>
       <c r="H3" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="I3" s="3">
         <v>0.62</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>162</v>
@@ -592,22 +580,19 @@
         <v>142</v>
       </c>
       <c r="F4" s="3">
-        <v>7</v>
+        <v>0.12</v>
       </c>
       <c r="G4" s="3">
-        <v>0.12</v>
+        <v>0.74</v>
       </c>
       <c r="H4" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="I4" s="3">
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>27</v>
@@ -619,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="3">
-        <v>7</v>
+        <v>0.74</v>
       </c>
       <c r="G5" s="3">
         <v>0.74</v>
@@ -627,16 +612,13 @@
       <c r="H5" s="3">
         <v>0.74</v>
       </c>
-      <c r="I5" s="3">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>106</v>
@@ -648,22 +630,19 @@
         <v>58</v>
       </c>
       <c r="F6" s="3">
-        <v>15</v>
+        <v>0.45</v>
       </c>
       <c r="G6" s="3">
-        <v>0.45</v>
+        <v>0.76</v>
       </c>
       <c r="H6" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="I6" s="3">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>61</v>
@@ -675,24 +654,21 @@
         <v>13</v>
       </c>
       <c r="F7" s="3">
-        <v>15</v>
+        <v>0.79</v>
       </c>
       <c r="G7" s="3">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="H7" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="I7" s="3">
         <v>0.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>119</v>
@@ -704,22 +680,19 @@
         <v>112</v>
       </c>
       <c r="F8" s="3">
-        <v>9</v>
+        <v>0.06</v>
       </c>
       <c r="G8" s="3">
-        <v>0.06</v>
+        <v>0.44</v>
       </c>
       <c r="H8" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="I8" s="3">
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>23</v>
@@ -731,24 +704,21 @@
         <v>16</v>
       </c>
       <c r="F9" s="3">
-        <v>9</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="3">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="H9" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="I9" s="3">
         <v>0.36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>72</v>
@@ -760,22 +730,19 @@
         <v>44</v>
       </c>
       <c r="F10" s="3">
-        <v>9</v>
+        <v>0.39</v>
       </c>
       <c r="G10" s="3">
-        <v>0.39</v>
+        <v>0.76</v>
       </c>
       <c r="H10" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="I10" s="3">
         <v>0.52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>43</v>
@@ -787,24 +754,21 @@
         <v>15</v>
       </c>
       <c r="F11" s="3">
-        <v>9</v>
+        <v>0.65</v>
       </c>
       <c r="G11" s="3">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="H11" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="I11" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>165</v>
@@ -816,22 +780,19 @@
         <v>134</v>
       </c>
       <c r="F12" s="3">
-        <v>8</v>
+        <v>0.19</v>
       </c>
       <c r="G12" s="3">
-        <v>0.19</v>
+        <v>0.79</v>
       </c>
       <c r="H12" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="I12" s="3">
         <v>0.31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>54</v>
@@ -843,24 +804,21 @@
         <v>24</v>
       </c>
       <c r="F13" s="3">
-        <v>8</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G13" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.79</v>
       </c>
       <c r="H13" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="I13" s="3">
         <v>0.66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>149</v>
@@ -872,22 +830,19 @@
         <v>59</v>
       </c>
       <c r="F14" s="3">
-        <v>37</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="3">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="H14" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="I14" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
         <v>120</v>
@@ -899,24 +854,21 @@
         <v>30</v>
       </c>
       <c r="F15" s="3">
-        <v>37</v>
+        <v>0.75</v>
       </c>
       <c r="G15" s="3">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="H15" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="I15" s="3">
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
         <v>58</v>
@@ -928,22 +880,19 @@
         <v>37</v>
       </c>
       <c r="F16" s="3">
-        <v>7</v>
+        <v>0.36</v>
       </c>
       <c r="G16" s="3">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="H16" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="I16" s="3">
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>47</v>
@@ -955,24 +904,21 @@
         <v>27</v>
       </c>
       <c r="F17" s="3">
-        <v>7</v>
+        <v>0.43</v>
       </c>
       <c r="G17" s="3">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="H17" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="I17" s="3">
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3">
         <v>21</v>
@@ -984,22 +930,19 @@
         <v>12</v>
       </c>
       <c r="F18" s="3">
-        <v>9</v>
+        <v>0.43</v>
       </c>
       <c r="G18" s="3">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3">
         <v>21</v>
@@ -1011,24 +954,21 @@
         <v>12</v>
       </c>
       <c r="F19" s="3">
-        <v>9</v>
+        <v>0.43</v>
       </c>
       <c r="G19" s="3">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3">
         <v>68</v>
@@ -1040,22 +980,19 @@
         <v>26</v>
       </c>
       <c r="F20" s="3">
-        <v>10</v>
+        <v>0.62</v>
       </c>
       <c r="G20" s="3">
-        <v>0.62</v>
+        <v>0.81</v>
       </c>
       <c r="H20" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="I20" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
         <v>62</v>
@@ -1067,24 +1004,21 @@
         <v>20</v>
       </c>
       <c r="F21" s="3">
-        <v>10</v>
+        <v>0.68</v>
       </c>
       <c r="G21" s="3">
-        <v>0.68</v>
+        <v>0.81</v>
       </c>
       <c r="H21" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="I21" s="3">
         <v>0.74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3">
         <v>68</v>
@@ -1096,22 +1030,19 @@
         <v>43</v>
       </c>
       <c r="F22" s="3">
-        <v>7</v>
+        <v>0.37</v>
       </c>
       <c r="G22" s="3">
-        <v>0.37</v>
+        <v>0.78</v>
       </c>
       <c r="H22" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="I22" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3">
         <v>64</v>
@@ -1123,24 +1054,21 @@
         <v>39</v>
       </c>
       <c r="F23" s="3">
-        <v>7</v>
+        <v>0.39</v>
       </c>
       <c r="G23" s="3">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="H23" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="I23" s="3">
         <v>0.52</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3">
         <v>97</v>
@@ -1152,22 +1080,19 @@
         <v>41</v>
       </c>
       <c r="F24" s="3">
-        <v>13</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G24" s="3">
-        <v>0.57999999999999996</v>
+        <v>0.81</v>
       </c>
       <c r="H24" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="I24" s="3">
         <v>0.68</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3">
         <v>85</v>
@@ -1179,24 +1104,21 @@
         <v>31</v>
       </c>
       <c r="F25" s="3">
-        <v>13</v>
+        <v>0.64</v>
       </c>
       <c r="G25" s="3">
-        <v>0.64</v>
+        <v>0.81</v>
       </c>
       <c r="H25" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="I25" s="3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
         <v>73</v>
@@ -1208,22 +1130,19 @@
         <v>32</v>
       </c>
       <c r="F26" s="3">
-        <v>11</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G26" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.79</v>
       </c>
       <c r="H26" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="I26" s="3">
         <v>0.66</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3">
         <v>56</v>
@@ -1235,15 +1154,12 @@
         <v>18</v>
       </c>
       <c r="F27" s="3">
-        <v>11</v>
+        <v>0.68</v>
       </c>
       <c r="G27" s="3">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="H27" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="I27" s="3">
         <v>0.73</v>
       </c>
     </row>

--- a/Evaluation/RQ2.xlsx
+++ b/Evaluation/RQ2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anity\git\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBB17F0-1DC9-486C-B66E-8D891871907C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AFBA9A-8AEF-4D14-BE8D-D001D34513F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{6FF1A8E1-9FB1-4E0A-B3B2-55FFB8D213DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Website</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>www.xfinity.com</t>
+  </si>
+  <si>
+    <t>FN</t>
   </si>
 </sst>
 </file>
@@ -479,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A8AA42-3849-40EA-9BF2-CD6F749367E5}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,16 +507,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -530,16 +536,19 @@
         <v>124</v>
       </c>
       <c r="F2" s="3">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3">
         <v>0.46</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>0.78</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -554,16 +563,19 @@
         <v>100</v>
       </c>
       <c r="F3" s="3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.51</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>0.78</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>0.62</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -580,16 +592,19 @@
         <v>142</v>
       </c>
       <c r="F4" s="3">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.12</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>0.74</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -604,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="3">
-        <v>0.74</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3">
         <v>0.74</v>
@@ -612,8 +627,11 @@
       <c r="H5" s="3">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -630,16 +648,19 @@
         <v>58</v>
       </c>
       <c r="F6" s="3">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.45</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>0.76</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -654,16 +675,19 @@
         <v>13</v>
       </c>
       <c r="F7" s="3">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.79</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>0.76</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>0.77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -680,16 +704,19 @@
         <v>112</v>
       </c>
       <c r="F8" s="3">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.06</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>0.44</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -704,16 +731,19 @@
         <v>16</v>
       </c>
       <c r="F9" s="3">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>0.44</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>0.36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -730,16 +760,19 @@
         <v>44</v>
       </c>
       <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
         <v>0.39</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>0.76</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>0.52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -754,16 +787,19 @@
         <v>15</v>
       </c>
       <c r="F11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.65</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>0.76</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -780,16 +816,19 @@
         <v>134</v>
       </c>
       <c r="F12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
         <v>0.19</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>0.79</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>0.31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -804,16 +843,19 @@
         <v>24</v>
       </c>
       <c r="F13" s="3">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>0.79</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>0.66</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -830,16 +872,19 @@
         <v>59</v>
       </c>
       <c r="F14" s="3">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3">
         <v>0.6</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>0.71</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -854,16 +899,19 @@
         <v>30</v>
       </c>
       <c r="F15" s="3">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3">
         <v>0.75</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>0.71</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -880,16 +928,19 @@
         <v>37</v>
       </c>
       <c r="F16" s="3">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3">
         <v>0.36</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>0.75</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -904,16 +955,19 @@
         <v>27</v>
       </c>
       <c r="F17" s="3">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3">
         <v>0.43</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>0.74</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -930,16 +984,19 @@
         <v>12</v>
       </c>
       <c r="F18" s="3">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3">
         <v>0.43</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>0.5</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -954,16 +1011,19 @@
         <v>12</v>
       </c>
       <c r="F19" s="3">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3">
         <v>0.43</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>0.5</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -980,16 +1040,19 @@
         <v>26</v>
       </c>
       <c r="F20" s="3">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
         <v>0.62</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>0.81</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -1004,16 +1067,19 @@
         <v>20</v>
       </c>
       <c r="F21" s="3">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
         <v>0.68</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>0.81</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>0.74</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1030,16 +1096,19 @@
         <v>43</v>
       </c>
       <c r="F22" s="3">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3">
         <v>0.37</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>0.78</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -1054,16 +1123,19 @@
         <v>39</v>
       </c>
       <c r="F23" s="3">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3">
         <v>0.39</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>0.78</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>0.52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1080,16 +1152,19 @@
         <v>41</v>
       </c>
       <c r="F24" s="3">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>0.81</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>0.68</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -1104,16 +1179,19 @@
         <v>31</v>
       </c>
       <c r="F25" s="3">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3">
         <v>0.64</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>0.81</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1130,16 +1208,19 @@
         <v>32</v>
       </c>
       <c r="F26" s="3">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>0.79</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>0.66</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>10</v>
@@ -1154,12 +1235,15 @@
         <v>18</v>
       </c>
       <c r="F27" s="3">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3">
         <v>0.68</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>0.78</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>0.73</v>
       </c>
     </row>
@@ -1180,5 +1264,6 @@
     <hyperlink ref="A26" r:id="rId13" display="http://www.xfinity.com/" xr:uid="{02DD5A5F-6901-4788-9A98-38DF1B96FA32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>